--- a/bombillo_rendija_simple.xlsx
+++ b/bombillo_rendija_simple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\Laboratorio Intermedio\Doble Rendija\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\Laboratorio Intermedio\Doble Rendija\FISI2551_Doble_Rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFFC6E8-65BC-4653-89A4-A882A26B1AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101CE0FB-D072-405F-8B40-03C07CF813FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8693C47B-E27F-4329-9817-B9897A951ACC}"/>
   </bookViews>
@@ -103,11 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3B49D8-1162-440F-81A6-A8B0274E3754}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>7.4</v>
       </c>
@@ -492,7 +491,7 @@
         <v>3.5118845842842465</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7.3</v>
       </c>
@@ -514,7 +513,7 @@
         <v>3.4641016151377544</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7.2</v>
       </c>
@@ -536,7 +535,7 @@
         <v>4.0414518843273806</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7.1</v>
       </c>
@@ -558,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -580,7 +579,7 @@
         <v>3.6055512754639891</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6.9</v>
       </c>
@@ -602,7 +601,7 @@
         <v>6.3508529610858773</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.8</v>
       </c>
@@ -624,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6.7</v>
       </c>
@@ -645,9 +644,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6.6</v>
       </c>
@@ -669,7 +667,7 @@
         <v>4.0414518843273806</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6.5</v>
       </c>
@@ -691,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6.4</v>
       </c>
@@ -714,7 +712,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6.3</v>
       </c>
@@ -736,7 +734,7 @@
         <v>6.0277137733417208</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6.2</v>
       </c>
@@ -758,7 +756,7 @@
         <v>0.57735026918962584</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6.1</v>
       </c>
@@ -780,7 +778,7 @@
         <v>12.662279942148391</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -1756,18 +1754,18 @@
         <v>81</v>
       </c>
       <c r="C60" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D60" s="1">
         <v>79</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
-        <v>41.581245772583578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
